--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H2">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J2">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>26.06522950063611</v>
+        <v>37.2276131066</v>
       </c>
       <c r="R2">
-        <v>234.587065505725</v>
+        <v>335.0485179594</v>
       </c>
       <c r="S2">
-        <v>0.004172258847964229</v>
+        <v>0.004925427730438544</v>
       </c>
       <c r="T2">
-        <v>0.004172258847964228</v>
+        <v>0.004925427730438545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H3">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J3">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>189.72803396398</v>
+        <v>203.189086765152</v>
       </c>
       <c r="R3">
-        <v>1707.55230567582</v>
+        <v>1828.701780886368</v>
       </c>
       <c r="S3">
-        <v>0.03036974864900977</v>
+        <v>0.02688308701419632</v>
       </c>
       <c r="T3">
-        <v>0.03036974864900976</v>
+        <v>0.02688308701419632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H4">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J4">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>2.210734530453333</v>
+        <v>4.434908303128</v>
       </c>
       <c r="R4">
-        <v>19.89661077408</v>
+        <v>39.91417472815201</v>
       </c>
       <c r="S4">
-        <v>0.0003538720694923811</v>
+        <v>0.0005867639237474014</v>
       </c>
       <c r="T4">
-        <v>0.0003538720694923811</v>
+        <v>0.0005867639237474014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H5">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I5">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J5">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>41.17900310139944</v>
+        <v>52.191629180744</v>
       </c>
       <c r="R5">
-        <v>370.611027912595</v>
+        <v>469.724662626696</v>
       </c>
       <c r="S5">
-        <v>0.006591519174460647</v>
+        <v>0.006905253284101295</v>
       </c>
       <c r="T5">
-        <v>0.006591519174460645</v>
+        <v>0.006905253284101296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.541588333333333</v>
+        <v>2.721912</v>
       </c>
       <c r="H6">
-        <v>7.624765</v>
+        <v>8.165736000000001</v>
       </c>
       <c r="I6">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="J6">
-        <v>0.04173735321957359</v>
+        <v>0.03958906885744382</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>1.561533233685555</v>
+        <v>2.180834001168</v>
       </c>
       <c r="R6">
-        <v>14.05379910317</v>
+        <v>19.627506010512</v>
       </c>
       <c r="S6">
-        <v>0.0002499544786465722</v>
+        <v>0.000288536904960253</v>
       </c>
       <c r="T6">
-        <v>0.0002499544786465721</v>
+        <v>0.000288536904960253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>68.753095</v>
       </c>
       <c r="I7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J7">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N7">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O7">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P7">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q7">
-        <v>235.0321878843528</v>
+        <v>313.4455510858194</v>
       </c>
       <c r="R7">
-        <v>2115.289690959175</v>
+        <v>2821.009959772375</v>
       </c>
       <c r="S7">
-        <v>0.03762158032918722</v>
+        <v>0.04147065257393524</v>
       </c>
       <c r="T7">
-        <v>0.03762158032918721</v>
+        <v>0.04147065257393524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>68.753095</v>
       </c>
       <c r="I8">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J8">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N8">
         <v>223.948188</v>
       </c>
       <c r="O8">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P8">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q8">
         <v>1710.79233829354</v>
@@ -948,10 +948,10 @@
         <v>15397.13104464186</v>
       </c>
       <c r="S8">
-        <v>0.2738463695591262</v>
+        <v>0.2263476844439137</v>
       </c>
       <c r="T8">
-        <v>0.2738463695591261</v>
+        <v>0.2263476844439137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>68.753095</v>
       </c>
       <c r="I9">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J9">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N9">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O9">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P9">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q9">
-        <v>19.93436403509333</v>
+        <v>37.34062329240722</v>
       </c>
       <c r="R9">
-        <v>179.40927631584</v>
+        <v>336.065609631665</v>
       </c>
       <c r="S9">
-        <v>0.003190891786390306</v>
+        <v>0.004940379629218707</v>
       </c>
       <c r="T9">
-        <v>0.003190891786390306</v>
+        <v>0.004940379629218707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>68.753095</v>
       </c>
       <c r="I10">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J10">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N10">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P10">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q10">
-        <v>371.3142519455761</v>
+        <v>439.4381644555328</v>
       </c>
       <c r="R10">
-        <v>3341.828267510185</v>
+        <v>3954.943480099795</v>
       </c>
       <c r="S10">
-        <v>0.05943623757532389</v>
+        <v>0.0581402013291733</v>
       </c>
       <c r="T10">
-        <v>0.05943623757532388</v>
+        <v>0.0581402013291733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>68.753095</v>
       </c>
       <c r="I11">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="J11">
-        <v>0.3763489380923739</v>
+        <v>0.3333283138369127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N11">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O11">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P11">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q11">
-        <v>14.08046579287889</v>
+        <v>18.36198075244333</v>
       </c>
       <c r="R11">
-        <v>126.72419213591</v>
+        <v>165.25782677199</v>
       </c>
       <c r="S11">
-        <v>0.002253858842346387</v>
+        <v>0.002429395860671744</v>
       </c>
       <c r="T11">
-        <v>0.002253858842346386</v>
+        <v>0.002429395860671744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H12">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I12">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J12">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N12">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O12">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P12">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q12">
-        <v>362.9976142725951</v>
+        <v>0.3939069580055556</v>
       </c>
       <c r="R12">
-        <v>3266.978528453356</v>
+        <v>3.54516262205</v>
       </c>
       <c r="S12">
-        <v>0.05810499416096758</v>
+        <v>5.211616035166348E-05</v>
       </c>
       <c r="T12">
-        <v>0.05810499416096756</v>
+        <v>5.211616035166348E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H13">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I13">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J13">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N13">
         <v>223.948188</v>
       </c>
       <c r="O13">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P13">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q13">
-        <v>2642.248888998804</v>
+        <v>2.149952371064</v>
       </c>
       <c r="R13">
-        <v>23780.24000098924</v>
+        <v>19.349571339576</v>
       </c>
       <c r="S13">
-        <v>0.4229445324998913</v>
+        <v>0.0002844510873484755</v>
       </c>
       <c r="T13">
-        <v>0.4229445324998911</v>
+        <v>0.0002844510873484754</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H14">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I14">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J14">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N14">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O14">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P14">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q14">
-        <v>30.78781103097601</v>
+        <v>0.04692595342377778</v>
       </c>
       <c r="R14">
-        <v>277.0902992787841</v>
+        <v>0.422333580814</v>
       </c>
       <c r="S14">
-        <v>0.004928202031764403</v>
+        <v>6.208574039085145E-06</v>
       </c>
       <c r="T14">
-        <v>0.004928202031764401</v>
+        <v>6.208574039085145E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H15">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I15">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J15">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N15">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P15">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q15">
-        <v>573.4796957597091</v>
+        <v>0.5522418486802223</v>
       </c>
       <c r="R15">
-        <v>5161.317261837382</v>
+        <v>4.970176638122</v>
       </c>
       <c r="S15">
-        <v>0.09179684125562322</v>
+        <v>7.306477876004319E-05</v>
       </c>
       <c r="T15">
-        <v>0.09179684125562318</v>
+        <v>7.306477876004319E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>35.39544900000001</v>
+        <v>0.02880066666666667</v>
       </c>
       <c r="H16">
-        <v>106.186347</v>
+        <v>0.08640200000000001</v>
       </c>
       <c r="I16">
-        <v>0.5812555628711455</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="J16">
-        <v>0.5812555628711454</v>
+        <v>0.0004188936217654919</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N16">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O16">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P16">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q16">
-        <v>21.746704298974</v>
+        <v>0.02307549734266667</v>
       </c>
       <c r="R16">
-        <v>195.720338690766</v>
+        <v>0.207679476084</v>
       </c>
       <c r="S16">
-        <v>0.003480992922899133</v>
+        <v>3.053021266224597E-06</v>
       </c>
       <c r="T16">
-        <v>0.003480992922899132</v>
+        <v>3.053021266224597E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04007766666666666</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H17">
-        <v>0.120233</v>
+        <v>129.103369</v>
       </c>
       <c r="I17">
-        <v>0.0006581458169070118</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J17">
-        <v>0.0006581458169070117</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N17">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O17">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P17">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q17">
-        <v>0.4110160429272222</v>
+        <v>588.5826178914695</v>
       </c>
       <c r="R17">
-        <v>3.699144386345</v>
+        <v>5297.243561023226</v>
       </c>
       <c r="S17">
-        <v>6.57912995439575E-05</v>
+        <v>0.07787287193287171</v>
       </c>
       <c r="T17">
-        <v>6.579129954395748E-05</v>
+        <v>0.07787287193287171</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04007766666666666</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H18">
-        <v>0.120233</v>
+        <v>129.103369</v>
       </c>
       <c r="I18">
-        <v>0.0006581458169070118</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J18">
-        <v>0.0006581458169070117</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N18">
         <v>223.948188</v>
       </c>
       <c r="O18">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P18">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q18">
-        <v>2.991773609756</v>
+        <v>3212.496172471709</v>
       </c>
       <c r="R18">
-        <v>26.925962487804</v>
+        <v>28912.46555224538</v>
       </c>
       <c r="S18">
-        <v>0.0004788929218561349</v>
+        <v>0.4250317549640225</v>
       </c>
       <c r="T18">
-        <v>0.0004788929218561346</v>
+        <v>0.4250317549640224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04007766666666666</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H19">
-        <v>0.120233</v>
+        <v>129.103369</v>
       </c>
       <c r="I19">
-        <v>0.0006581458169070118</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J19">
-        <v>0.0006581458169070117</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N19">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O19">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P19">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q19">
-        <v>0.03486051633066667</v>
+        <v>70.11757459950924</v>
       </c>
       <c r="R19">
-        <v>0.313744646976</v>
+        <v>631.058171395583</v>
       </c>
       <c r="S19">
-        <v>5.580119588115498E-06</v>
+        <v>0.009276959157563831</v>
       </c>
       <c r="T19">
-        <v>5.580119588115496E-06</v>
+        <v>0.00927695915756383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04007766666666666</v>
+        <v>43.03445633333334</v>
       </c>
       <c r="H20">
-        <v>0.120233</v>
+        <v>129.103369</v>
       </c>
       <c r="I20">
-        <v>0.0006581458169070118</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="J20">
-        <v>0.0006581458169070117</v>
+        <v>0.6259181248412854</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N20">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P20">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q20">
-        <v>0.6493413344398888</v>
+        <v>825.1693614430789</v>
       </c>
       <c r="R20">
-        <v>5.844072009959</v>
+        <v>7426.52425298771</v>
       </c>
       <c r="S20">
-        <v>0.0001039400066628843</v>
+        <v>0.109174661387019</v>
       </c>
       <c r="T20">
-        <v>0.0001039400066628843</v>
+        <v>0.109174661387019</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>43.03445633333334</v>
+      </c>
+      <c r="H21">
+        <v>129.103369</v>
+      </c>
+      <c r="I21">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="J21">
+        <v>0.6259181248412854</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.801214</v>
+      </c>
+      <c r="N21">
+        <v>2.403642</v>
+      </c>
+      <c r="O21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P21">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q21">
+        <v>34.47980889665534</v>
+      </c>
+      <c r="R21">
+        <v>310.318280069898</v>
+      </c>
+      <c r="S21">
+        <v>0.004561877399808355</v>
+      </c>
+      <c r="T21">
+        <v>0.004561877399808355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.051263</v>
+      </c>
+      <c r="H22">
+        <v>0.153789</v>
+      </c>
+      <c r="I22">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J22">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.67700833333333</v>
+      </c>
+      <c r="N22">
+        <v>41.031025</v>
+      </c>
+      <c r="O22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="P22">
+        <v>0.124413831206147</v>
+      </c>
+      <c r="Q22">
+        <v>0.7011244781916667</v>
+      </c>
+      <c r="R22">
+        <v>6.310120303725</v>
+      </c>
+      <c r="S22">
+        <v>9.276280854982494E-05</v>
+      </c>
+      <c r="T22">
+        <v>9.276280854982494E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.051263</v>
+      </c>
+      <c r="H23">
+        <v>0.153789</v>
+      </c>
+      <c r="I23">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J23">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.64939600000001</v>
+      </c>
+      <c r="N23">
+        <v>223.948188</v>
+      </c>
+      <c r="O23">
+        <v>0.679053278848249</v>
+      </c>
+      <c r="P23">
+        <v>0.6790532788482488</v>
+      </c>
+      <c r="Q23">
+        <v>3.826751987148001</v>
+      </c>
+      <c r="R23">
+        <v>34.440767884332</v>
+      </c>
+      <c r="S23">
+        <v>0.0005063013387680227</v>
+      </c>
+      <c r="T23">
+        <v>0.0005063013387680227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.051263</v>
+      </c>
+      <c r="H24">
+        <v>0.153789</v>
+      </c>
+      <c r="I24">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J24">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.629335666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.888007</v>
+      </c>
+      <c r="O24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="P24">
+        <v>0.01482136207497777</v>
+      </c>
+      <c r="Q24">
+        <v>0.08352463428033334</v>
+      </c>
+      <c r="R24">
+        <v>0.751721708523</v>
+      </c>
+      <c r="S24">
+        <v>1.105079040875056E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.105079040875055E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.04007766666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.120233</v>
-      </c>
-      <c r="I21">
-        <v>0.0006581458169070118</v>
-      </c>
-      <c r="J21">
-        <v>0.0006581458169070117</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.6143926666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.843178</v>
-      </c>
-      <c r="O21">
-        <v>0.005988747713148012</v>
-      </c>
-      <c r="P21">
-        <v>0.00598874771314801</v>
-      </c>
-      <c r="Q21">
-        <v>0.02462342449711111</v>
-      </c>
-      <c r="R21">
-        <v>0.221610820474</v>
-      </c>
-      <c r="S21">
-        <v>3.941469255919798E-06</v>
-      </c>
-      <c r="T21">
-        <v>3.941469255919796E-06</v>
+      <c r="G25">
+        <v>0.051263</v>
+      </c>
+      <c r="H25">
+        <v>0.153789</v>
+      </c>
+      <c r="I25">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J25">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.17462033333333</v>
+      </c>
+      <c r="N25">
+        <v>57.523861</v>
+      </c>
+      <c r="O25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="P25">
+        <v>0.174423230537864</v>
+      </c>
+      <c r="Q25">
+        <v>0.9829485621476667</v>
+      </c>
+      <c r="R25">
+        <v>8.846537059329</v>
+      </c>
+      <c r="S25">
+        <v>0.0001300497588103086</v>
+      </c>
+      <c r="T25">
+        <v>0.0001300497588103086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.051263</v>
+      </c>
+      <c r="H26">
+        <v>0.153789</v>
+      </c>
+      <c r="I26">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="J26">
+        <v>0.0007455988425926857</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.801214</v>
+      </c>
+      <c r="N26">
+        <v>2.403642</v>
+      </c>
+      <c r="O26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="P26">
+        <v>0.007288297332762355</v>
+      </c>
+      <c r="Q26">
+        <v>0.041072633282</v>
+      </c>
+      <c r="R26">
+        <v>0.369653699538</v>
+      </c>
+      <c r="S26">
+        <v>5.434146055778971E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.434146055778971E-06</v>
       </c>
     </row>
   </sheetData>
